--- a/00_プロジェクト管理/09_反復計画書.xlsx
+++ b/00_プロジェクト管理/09_反復計画書.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="39" documentId="11_C2CE7BF99D9934A34B2AA0BC1A662CAB82DE6774" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{826E10A9-D500-4F93-9715-4FAADA7DCA18}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060AD65F-5AB1-40FC-B213-5E4CF5C7128F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="11730" windowHeight="8670" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
     <sheet name="反復計画書" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="114210"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -208,7 +209,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1045,7 +1046,7 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -1054,7 +1055,7 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1063,28 +1064,28 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="13.5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="13.5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="38"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="13.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
@@ -1110,7 +1111,7 @@
       <c r="D6" s="10"/>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" ht="13.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>6</v>
@@ -1119,7 +1120,7 @@
       <c r="D7" s="10"/>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" ht="13.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>7</v>
@@ -1128,7 +1129,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:5" ht="99" customHeight="1">
+    <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>8</v>
@@ -1137,7 +1138,7 @@
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="1:5" ht="81.75" customHeight="1">
+    <row r="10" spans="1:5" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>9</v>
@@ -1152,7 +1153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1">
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
         <v>11</v>
@@ -1161,7 +1162,7 @@
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:5" ht="13.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1172,7 +1173,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>6</v>
@@ -1181,7 +1182,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="13.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
         <v>7</v>
@@ -1190,7 +1191,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="93" customHeight="1">
+    <row r="15" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>9</v>
@@ -1199,7 +1200,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>11</v>
@@ -1224,11 +1225,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -1237,7 +1238,7 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1249,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1">
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="38"/>
       <c r="B2" s="4" t="s">
         <v>15</v>
@@ -1257,7 +1258,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="38"/>
       <c r="B3" s="4" t="s">
         <v>16</v>
@@ -1266,14 +1267,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="13.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
@@ -1303,7 +1304,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>6</v>
@@ -1318,7 +1319,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>7</v>
@@ -1333,7 +1334,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="76.5" customHeight="1">
+    <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>8</v>
@@ -1348,7 +1349,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="147" customHeight="1">
+    <row r="10" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>9</v>
@@ -1363,7 +1364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
       <c r="B11" s="14" t="s">
         <v>11</v>
@@ -1372,7 +1373,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" ht="13.5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1383,7 +1384,7 @@
       <c r="D12" s="34"/>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:5" ht="13.5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>6</v>
@@ -1392,7 +1393,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5" ht="13.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
         <v>7</v>
@@ -1401,7 +1402,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="42.75" customHeight="1">
+    <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>9</v>
@@ -1410,7 +1411,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1">
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>11</v>
@@ -1432,9 +1433,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1622,19 +1626,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1658,9 +1658,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>